--- a/MVP.Generate.Excel/Template/Subcription_Tracking.xlsx
+++ b/MVP.Generate.Excel/Template/Subcription_Tracking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\MVP.Generate.Excel\MVP.Generate.Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\mvp_report\MVP.Generate.Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60015F-E6F0-43FF-8159-9724273314DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subscription Tracking" sheetId="1" r:id="rId1"/>
@@ -176,18 +177,6 @@
     <t> {{item.Promotions.Value}}</t>
   </si>
   <si>
-    <t> {{item.Vendor.Name}}</t>
-  </si>
-  <si>
-    <t> {{item.Vendor.BasePrice}}</t>
-  </si>
-  <si>
-    <t> {{item.Vendor.Tax}}</t>
-  </si>
-  <si>
-    <t> {{item.Vendor.Value}}</t>
-  </si>
-  <si>
     <t> {{item.UcashPointsEarning.CashBackPercent}}</t>
   </si>
   <si>
@@ -207,12 +196,24 @@
   </si>
   <si>
     <t>{{item.OrderDate}}</t>
+  </si>
+  <si>
+    <t> {{item.Purchase.Name}}</t>
+  </si>
+  <si>
+    <t> {{item.Purchase.BasePrice}}</t>
+  </si>
+  <si>
+    <t> {{item.Purchase.Tax}}</t>
+  </si>
+  <si>
+    <t> {{item.Purchase.Value}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -393,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,34 +427,37 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,48 +734,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" customWidth="1"/>
-    <col min="28" max="28" width="27" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="5" customFormat="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -787,19 +794,19 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="19"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
@@ -905,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
@@ -935,10 +942,10 @@
         <v>41</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>42</v>
@@ -956,13 +963,13 @@
         <v>46</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>47</v>
@@ -971,27 +978,27 @@
         <v>48</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
